--- a/Docs/需求/(正式14)增列專家學者資料庫名單-講訓組-1130628.xlsx
+++ b/Docs/需求/(正式14)增列專家學者資料庫名單-講訓組-1130628.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\新增專家委員\33給資訊室資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\新增專家委員\33給資訊室資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AAE634-195A-4180-AA2E-4DB37CF53A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA278CB0-E126-4159-BE89-B3794ABFC48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F4A420E3-79CD-4691-ADD9-7F8CED114905}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="169">
   <si>
     <r>
       <rPr>
@@ -1608,80 +1608,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2079,7 +2079,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="T28" sqref="R28:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3493,9 +3493,15 @@
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
+      <c r="R28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="U28" s="20">
         <v>113</v>
       </c>
